--- a/sprint-backlog/sprint-6/report-sheet.xlsx
+++ b/sprint-backlog/sprint-6/report-sheet.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="986"/>
   </bookViews>
   <sheets>
-    <sheet name="plan" sheetId="1" r:id="rId1"/>
+    <sheet name="report-sheet" sheetId="1" r:id="rId1"/>
     <sheet name="execution" sheetId="2" r:id="rId2"/>
     <sheet name="burndown" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="34">
   <si>
     <t>User Story</t>
   </si>
@@ -41,12 +41,6 @@
     <t>5: November 25</t>
   </si>
   <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>T26</t>
-  </si>
-  <si>
     <t>U4</t>
   </si>
   <si>
@@ -102,24 +96,6 @@
   </si>
   <si>
     <t>T37</t>
-  </si>
-  <si>
-    <t>1: November 14</t>
-  </si>
-  <si>
-    <t>5: November 18</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>T28</t>
-  </si>
-  <si>
-    <t>T30</t>
-  </si>
-  <si>
-    <t>T29, T30</t>
   </si>
   <si>
     <t>day</t>
@@ -149,12 +125,15 @@
   <si>
     <t>Z:4</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J:3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -195,7 +174,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -267,12 +246,27 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="zh-CN"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-CA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -294,7 +288,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1400" b="0" strike="noStrike" spc="-1">
+              <a:rPr lang="en-CA" sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -310,11 +304,15 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -346,9 +344,28 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -381,10 +398,37 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln>
@@ -393,17 +437,20 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="167127296"/>
-        <c:axId val="167133184"/>
+        <c:smooth val="0"/>
+        <c:axId val="203401472"/>
+        <c:axId val="203407360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="167127296"/>
+        <c:axId val="203401472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
@@ -430,20 +477,22 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="167133184"/>
+        <c:crossAx val="203407360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="167133184"/>
+        <c:axId val="203407360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -457,6 +506,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="6480">
@@ -480,10 +530,10 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="167127296"/>
+        <c:crossAx val="203401472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -496,6 +546,8 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -509,12 +561,13 @@
           <a:pPr>
             <a:defRPr lang="en-US"/>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -571,7 +624,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -645,6 +698,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -679,6 +733,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -854,11 +909,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -899,147 +954,153 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>6</v>
       </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5">
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7">
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8">
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9">
         <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1050,11 +1111,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1076,7 +1137,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>2</v>
@@ -1088,7 +1149,7 @@
         <v>4</v>
       </c>
       <c r="I1" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1099,82 +1160,150 @@
         <v>7</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7">
-        <v>8</v>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9">
         <v>5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1185,11 +1314,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1199,7 +1328,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -1222,12 +1351,48 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>26</v>
+      </c>
+      <c r="B2">
+        <v>38</v>
+      </c>
+      <c r="C2">
+        <v>36</v>
+      </c>
+      <c r="D2">
+        <v>33</v>
+      </c>
+      <c r="E2">
+        <v>28</v>
+      </c>
+      <c r="F2">
+        <v>23</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>27</v>
+      </c>
+      <c r="B3">
+        <v>38</v>
+      </c>
+      <c r="C3">
+        <v>36</v>
+      </c>
+      <c r="D3">
+        <v>33</v>
+      </c>
+      <c r="E3">
+        <v>28</v>
+      </c>
+      <c r="F3">
+        <v>28</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/sprint-backlog/sprint-6/report-sheet.xlsx
+++ b/sprint-backlog/sprint-6/report-sheet.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffc\Git\Team14\sprint-backlog\sprint-6\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3227946F-11FF-4F4D-8DAA-41457F7B3643}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="986"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="report-sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="plan" sheetId="1" r:id="rId1"/>
     <sheet name="execution" sheetId="2" r:id="rId2"/>
     <sheet name="burndown" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -133,7 +139,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -250,14 +256,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-CA"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -299,12 +308,11 @@
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:rPr>
-              <a:t>Sprint 4: Burndown Chart Provisional vs Actual</a:t>
+              <a:t>Sprint 6: Burndown Chart Provisional vs Actual</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -332,6 +340,7 @@
               <a:solidFill>
                 <a:srgbClr val="636363"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
           </c:spPr>
@@ -366,6 +375,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9425-4846-BC7E-357C8AF2DBAB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -420,6 +434,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9425-4846-BC7E-357C8AF2DBAB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -436,7 +455,6 @@
             </a:ln>
           </c:spPr>
         </c:hiLowLines>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="203401472"/>
         <c:axId val="203407360"/>
@@ -546,7 +564,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -605,7 +622,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -666,7 +689,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -699,9 +722,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -734,6 +774,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -909,18 +966,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="6" width="8.5546875"/>
-    <col min="7" max="7" width="10.44140625"/>
-    <col min="8" max="1025" width="8.5546875"/>
+    <col min="1" max="6" width="8.54296875"/>
+    <col min="7" max="7" width="10.453125"/>
+    <col min="8" max="1025" width="8.54296875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1111,16 +1168,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1025" width="8.5546875"/>
+    <col min="1" max="1025" width="8.54296875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1314,16 +1371,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1025" width="8.5546875"/>
+    <col min="1" max="1025" width="8.54296875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
